--- a/team_specific_matrix/Midway_A.xlsx
+++ b/team_specific_matrix/Midway_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2631578947368421</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C2">
-        <v>0.4210526315789473</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05263157894736842</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1052631578947368</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1578947368421053</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.24</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="S6">
-        <v>0.5600000000000001</v>
+        <v>0.5609756097560976</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06451612903225806</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03225806451612903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1290322580645161</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1612903225806452</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.09677419354838709</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S7">
-        <v>0.5161290322580645</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04166666666666666</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02777777777777778</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04166666666666666</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08333333333333333</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01388888888888889</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1111111111111111</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="R8">
-        <v>0.04166666666666666</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="S8">
-        <v>0.6388888888888888</v>
+        <v>0.6434782608695652</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09302325581395349</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1162790697674419</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1395348837209302</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="R9">
-        <v>0.1162790697674419</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="S9">
-        <v>0.5348837209302325</v>
+        <v>0.5084745762711864</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05660377358490566</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01886792452830189</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06289308176100629</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.119496855345912</v>
+        <v>0.1193415637860082</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01257861635220126</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1635220125786163</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="R10">
-        <v>0.1069182389937107</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="S10">
-        <v>0.4591194968553459</v>
+        <v>0.4197530864197531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1730769230769231</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03846153846153846</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="K11">
-        <v>0.2307692307692308</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="L11">
-        <v>0.4615384615384616</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09615384615384616</v>
+        <v>0.08860759493670886</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.125</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.2083333333333333</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.21875</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="J15">
-        <v>0.34375</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K15">
-        <v>0.09375</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03125</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1875</v>
+        <v>0.2093023255813954</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I16">
-        <v>0.2307692307692308</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J16">
-        <v>0.1538461538461539</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K16">
-        <v>0.07692307692307693</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.3076923076923077</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="I17">
-        <v>0.12</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J17">
-        <v>0.36</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="K17">
-        <v>0.06</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.14</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.16</v>
+        <v>0.144578313253012</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03571428571428571</v>
+        <v>0.05</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.175</v>
       </c>
       <c r="I18">
-        <v>0.1071428571428571</v>
+        <v>0.075</v>
       </c>
       <c r="J18">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="K18">
-        <v>0.1071428571428571</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1071428571428571</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004219409282700422</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2236286919831224</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="I19">
-        <v>0.1223628691983122</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="J19">
-        <v>0.3037974683544304</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="K19">
-        <v>0.1265822784810127</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02953586497890295</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06329113924050633</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1265822784810127</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
   </sheetData>
